--- a/docs/campy_ncbi.xlsx
+++ b/docs/campy_ncbi.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\HSO\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB2EEC-1166-411E-9342-C4CF0826C2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ACA85F-7116-44B6-8A4D-D2BADF473A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="13707" xr2:uid="{BC9F9AC6-E6B5-4E26-8DC4-44951FDC5054}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="root1" sheetId="1" r:id="rId1"/>
+    <sheet name="level2" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="225">
   <si>
     <t>label</t>
   </si>
@@ -698,16 +700,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Campylobacter spp'</t>
-  </si>
-  <si>
-    <t>Campylobacter fetus'</t>
-  </si>
-  <si>
-    <t>Campylobacter hyointestinalis'</t>
-  </si>
-  <si>
-    <t>Campylobacter sputorum'</t>
+    <t>Campylobacter spp</t>
+  </si>
+  <si>
+    <t>NCBITaxon_205</t>
+  </si>
+  <si>
+    <t>NCBITaxon:205</t>
+  </si>
+  <si>
+    <t>RF-00000042-MCG</t>
   </si>
 </sst>
 </file>
@@ -731,15 +733,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -747,12 +755,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -760,10 +783,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1079,17 +1105,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A4E8FD-7C3F-40B9-AE91-C71BF98B3EC8}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.875" customWidth="1"/>
     <col min="2" max="2" width="30.625" customWidth="1"/>
-    <col min="10" max="10" width="30.375" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="44.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://purl.obolibrary.org/obo/NCBITaxon_205" xr:uid="{75CE6A08-17FF-4EF0-8C4C-FD11AC786B94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D391D8-CB1F-4C6F-9A25-3E839ED0704D}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="7" customWidth="1"/>
     <col min="11" max="11" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1121,7 +1311,7 @@
       <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>128</v>
       </c>
       <c r="K1" t="s">
@@ -1132,7 +1322,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B2" t="s">
@@ -1141,18 +1331,18 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>221</v>
       </c>
       <c r="K2" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B3" t="s">
@@ -1161,13 +1351,13 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>221</v>
       </c>
       <c r="K3" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1193,13 +1383,13 @@
       <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>221</v>
       </c>
       <c r="K4" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1213,13 +1403,13 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>221</v>
       </c>
       <c r="K5" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1233,13 +1423,13 @@
       <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>221</v>
       </c>
       <c r="K6" t="s">
         <v>133</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1253,13 +1443,13 @@
       <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>221</v>
       </c>
       <c r="K7" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1279,13 +1469,13 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>221</v>
       </c>
       <c r="K8" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1299,878 +1489,806 @@
       <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>221</v>
       </c>
       <c r="K9" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>221</v>
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>222</v>
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>222</v>
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
+        <v>185</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>221</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
         <v>221</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
         <v>221</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
         <v>221</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
         <v>221</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
+        <v>191</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>221</v>
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
+        <v>192</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>221</v>
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
+        <v>193</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>223</v>
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
+        <v>194</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>223</v>
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>195</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
         <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
         <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
+        <v>197</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" t="s">
         <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>198</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
         <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>152</v>
-      </c>
-      <c r="L25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" t="s">
         <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
         <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
         <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>155</v>
-      </c>
-      <c r="L28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
         <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" t="s">
         <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
-      </c>
-      <c r="L30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" t="s">
         <v>221</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
-      </c>
-      <c r="L31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" t="s">
         <v>221</v>
       </c>
       <c r="K32" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" t="s">
         <v>221</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
-      </c>
-      <c r="L33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
+        <v>208</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>221</v>
+        <v>115</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
       </c>
       <c r="K34" t="s">
-        <v>161</v>
-      </c>
-      <c r="L34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
+        <v>209</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>221</v>
+        <v>116</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
       </c>
       <c r="K35" t="s">
-        <v>162</v>
-      </c>
-      <c r="L35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
+        <v>210</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>221</v>
+        <v>117</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
-      </c>
-      <c r="L36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>224</v>
+        <v>118</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>164</v>
-      </c>
-      <c r="L37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>212</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>224</v>
+        <v>123</v>
+      </c>
+      <c r="J38" t="s">
+        <v>221</v>
       </c>
       <c r="K38" t="s">
-        <v>165</v>
-      </c>
-      <c r="L38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>42</v>
+        <v>213</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>224</v>
+        <v>124</v>
+      </c>
+      <c r="J39" t="s">
+        <v>221</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
-      </c>
-      <c r="L39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>224</v>
+        <v>125</v>
+      </c>
+      <c r="J40" t="s">
+        <v>221</v>
       </c>
       <c r="K40" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
-      </c>
-      <c r="J41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J41" t="s">
         <v>221</v>
       </c>
       <c r="K41" t="s">
-        <v>168</v>
-      </c>
-      <c r="L41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" t="s">
         <v>221</v>
       </c>
       <c r="K42" t="s">
-        <v>169</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>125</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K43" t="s">
-        <v>170</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K44" t="s">
-        <v>171</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" t="s">
-        <v>127</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K45" t="s">
         <v>172</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="NCBITaxon_522483" display="http://purl.obolibrary.org/obo/ncbitaxon#NCBITaxon_522483" xr:uid="{45784521-87A5-4C21-89E7-1044AE3CE313}"/>
-    <hyperlink ref="A3" r:id="rId2" location="NCBITaxon_449520" display="http://purl.obolibrary.org/obo/ncbitaxon#NCBITaxon_449520" xr:uid="{F658B31B-CC5D-45E0-A2C7-93CAFFC7AC35}"/>
-    <hyperlink ref="L2" r:id="rId3" xr:uid="{7F6AE6F7-EF93-4D32-BEE5-F44359E93E64}"/>
+    <hyperlink ref="A2" r:id="rId1" location="NCBITaxon_522483" display="http://purl.obolibrary.org/obo/ncbitaxon#NCBITaxon_522483" xr:uid="{5F731CC5-E835-4E09-874C-25973797868A}"/>
+    <hyperlink ref="A3" r:id="rId2" location="NCBITaxon_449520" display="http://purl.obolibrary.org/obo/ncbitaxon#NCBITaxon_449520" xr:uid="{9D536AD3-3384-41F1-964F-F04B34406786}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{2FA83E6B-C940-43F5-B383-620203A71357}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1741A49D-C305-4898-A7BE-54026EA2067D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>